--- a/Data/ExcelData.xlsx
+++ b/Data/ExcelData.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="100" windowWidth="26200" windowHeight="13800"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginTests" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
-  <si>
-    <t>Invalid_Login</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Username</t>
   </si>
@@ -38,7 +35,13 @@
     <t>test</t>
   </si>
   <si>
+    <t>Result</t>
+  </si>
+  <si>
     <t>email@email.com</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -80,18 +83,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -128,9 +125,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -443,66 +440,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="B2" s="6" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
+    <row r="17" spans="4:5">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
-    <row r="4" spans="1:4">
-      <c r="D4" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7">
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="6:7">
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
+    <row r="18" spans="4:5">
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
